--- a/個人課表/T1234551.xlsx
+++ b/個人課表/T1234551.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8D67A9-22B2-42D2-B0EB-FF6F58E93572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB68DD77-9CB3-4BEC-A014-6DE79B5B4DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="310" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1210" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,12 +81,6 @@
   <si>
     <t>16:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大數據分析</t>
-  </si>
-  <si>
-    <t>文化研究</t>
   </si>
 </sst>
 </file>
@@ -137,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,11 +139,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -157,6 +166,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -440,7 +452,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -448,7 +460,7 @@
     <col min="1" max="1" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,26 +477,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
+      <c r="D2" s="5">
+        <v>4361</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
+      <c r="D3" s="5">
+        <v>4361</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -492,21 +504,21 @@
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
+      <c r="C6" s="5">
+        <v>3827</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/個人課表/T1234551.xlsx
+++ b/個人課表/T1234551.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB68DD77-9CB3-4BEC-A014-6DE79B5B4DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93FD88B-8858-48D2-A80B-44DD9C3E3547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1210" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="280" windowWidth="6810" windowHeight="9610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -481,7 +481,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>4361</v>
       </c>
       <c r="F2" s="3"/>
@@ -492,6 +492,9 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5">
+        <v>8642</v>
+      </c>
+      <c r="E3" s="5">
         <v>4361</v>
       </c>
       <c r="F3" s="3"/>
@@ -502,7 +505,9 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>8642</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
